--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1430597.48824814</v>
+        <v>1506127.157912944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>299.4999079672565</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289.5474280432195</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>74.31262320299348</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.1019755706699</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>330.4043932768926</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>71.04317147903355</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.715333384834437</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.7498680634316</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.7549529444622</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>32.55591946179671</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>128.0537032279752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6554731767143</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>60.54139430664144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>157.0146279810757</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.57869881635469</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.1163355383938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.9442662872342</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>188.5945765121012</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>237.4804158064617</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972313</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.9515762406799</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>100.9428337701611</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.73172323044375</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>147.6461444058331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>92.99968896090795</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>208.5989924719906</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.039635429691</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C2" t="n">
-        <v>1245.039635429691</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="D2" t="n">
-        <v>1245.039635429691</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1245.039635429691</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.039635429691</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>174.6627620138296</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>174.6627620138296</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>174.6627620138296</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>496.588857412915</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>496.588857412915</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117927</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X5" t="n">
-        <v>1237.954139587604</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y5" t="n">
-        <v>847.8148076117927</v>
+        <v>1894.539591564835</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9086980046678</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>689.9086980046678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>689.9086980046678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>689.9086980046678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>689.9086980046678</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>689.9086980046678</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>897.5253104027533</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>511.7370578045091</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>100.7511530149015</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>86.82774895349245</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>86.82774895349245</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935032</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935032</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4902,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084172</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>331.2032503805103</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>331.2032503805103</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2901567981172</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>183.2901567981172</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>183.2901567981172</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084172</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084172</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5032,16 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5048,7 +5050,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>391.604014001513</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>638.3691419079769</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5239,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,10 +5275,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.438140992646</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>812.5733666950175</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>812.5733666950175</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>664.6602731126244</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>517.770325614714</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1314.529350133511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1314.529350133511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1314.529350133511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1059.844861927624</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>770.4276918906634</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>542.438140992646</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.438140992646</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937516</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C28" t="n">
-        <v>4117.121435937516</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D28" t="n">
-        <v>3967.004796525181</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>3967.004796525181</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1308.416698323458</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1084.631283112964</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>795.5026443265216</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937516</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937516</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937516</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937516</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6457,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844583</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916677</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>4620.975365128978</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>4366.290876923092</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>4076.873706886131</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>3848.884155988113</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>3628.091576844583</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,16 +6685,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2581065529675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,13 +6973,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>349.5975582660407</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>199.179549813984</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.107328986838</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7214,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>4278.713834708918</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>4109.777651781011</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3959.661012368675</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3811.747918786282</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3664.857971288372</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502827</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.00103929694</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>4460.362299539157</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,13 +7447,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7488,25 +7490,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
         <v>4860.854573014292</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7673,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.1345339792616</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C46" t="n">
-        <v>654.1345339792616</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>654.1345339792616</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>104.8749102765755</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229568</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714805</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714805</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577674</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>225.9816040299496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>9.478940482301851</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>125.3421111672486</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23949,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241345</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.46831781370096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>68.47678173569705</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.326233471502064</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>48.75693659211569</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.6844047393597</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>131.6638967775324</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>9.476411694110851</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>111.7618452329338</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>19.60067669279474</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>42.08221638637286</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.61578405730441</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>9.985660880104149</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238886</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238886</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935011.527223889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852507</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852506</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.278882670405437e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.582216512</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
         <v>226417.2969980325</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980322</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.974258096</v>
+        <v>-184344.9742580959</v>
       </c>
       <c r="F6" t="n">
         <v>340815.0622187999</v>
@@ -26537,28 +26539,28 @@
         <v>340815.0622187998</v>
       </c>
       <c r="H6" t="n">
+        <v>340815.0622187998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>340815.0622187991</v>
+      </c>
+      <c r="J6" t="n">
+        <v>164391.8430262067</v>
+      </c>
+      <c r="K6" t="n">
+        <v>340815.0622187997</v>
+      </c>
+      <c r="L6" t="n">
+        <v>340815.0622188004</v>
+      </c>
+      <c r="M6" t="n">
+        <v>206014.0469849626</v>
+      </c>
+      <c r="N6" t="n">
+        <v>340815.0622187998</v>
+      </c>
+      <c r="O6" t="n">
         <v>340815.0622188</v>
-      </c>
-      <c r="I6" t="n">
-        <v>340815.0622187998</v>
-      </c>
-      <c r="J6" t="n">
-        <v>164391.8430262071</v>
-      </c>
-      <c r="K6" t="n">
-        <v>340815.0622188001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>340815.0622187998</v>
-      </c>
-      <c r="M6" t="n">
-        <v>206014.0469849631</v>
-      </c>
-      <c r="N6" t="n">
-        <v>340815.0622188</v>
-      </c>
-      <c r="O6" t="n">
-        <v>340815.0622188001</v>
       </c>
       <c r="P6" t="n">
         <v>340815.0622188</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>55.18313365342641</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>117.3286176984919</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>81.85826563880167</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>52.03566775315809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>52.32944838658796</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>298.6879291994355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.5665408571433</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560556</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.9788887190184</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119.3753967830645</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>28.11718561381991</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.05418221232281</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>130.3926104730631</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>255.4503488645147</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35963,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734234</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336985</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506127.157912944</v>
+        <v>1499110.143021233</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>299.4999079672565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>100.9589955168699</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>74.31262320299348</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.4043932768926</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>148.3681250208876</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8.715333384834691</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>171.7498680634316</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>225.2142649742363</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>32.55591946179671</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>131.6554731767143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>262.7410145271816</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>135.8803936258643</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>157.0146279810757</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151926</v>
+        <v>145.8998232290789</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.5945765121012</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>235.2707607354178</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.64843562452451</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8385935972313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>75.78403230830209</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>100.9428337701611</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>54.73172323044375</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>100.1056745153741</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>49.1501042307677</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>183.6274390026643</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>128.2693160379189</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.5989924719906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.612574238668</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>548.6555185181858</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>162.8672659199415</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>155.9217651707381</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.5758555962227</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C4" t="n">
-        <v>322.5758555962227</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>322.5758555962227</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>174.6627620138296</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>174.6627620138296</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>174.6627620138296</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
         <v>99.59950625323012</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564835</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564835</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564835</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>62.74634887575303</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>62.74634887575303</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>62.74634887575303</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.753525949915</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.791009009504</v>
+        <v>1513.092286283103</v>
       </c>
       <c r="D8" t="n">
-        <v>897.5253104027533</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E8" t="n">
-        <v>511.7370578045091</v>
+        <v>769.038335078108</v>
       </c>
       <c r="F8" t="n">
-        <v>100.7511530149015</v>
+        <v>762.0928343289046</v>
       </c>
       <c r="G8" t="n">
-        <v>86.82774895349245</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>86.82774895349245</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.753525949915</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628418</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>391.604014001513</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079769</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>812.5733666950175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>812.5733666950175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>664.6602731126244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>517.770325614714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805471</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571612</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636255</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526318</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1308.416698323458</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1084.631283112964</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>795.5026443265216</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>540.8181561206347</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>540.8181561206347</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>540.8181561206347</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.8181561206347</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571612</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395484</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6657,16 +6657,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057541</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851654</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814693</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,13 +6973,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="D37" t="n">
-        <v>665.6859735286132</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="E37" t="n">
-        <v>517.7728799462201</v>
+        <v>173.7666190444294</v>
       </c>
       <c r="F37" t="n">
-        <v>517.7728799462201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>349.5975582660407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>199.179549813984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4278.713834708918</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C40" t="n">
-        <v>4109.777651781011</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D40" t="n">
-        <v>3959.661012368675</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E40" t="n">
-        <v>3811.747918786282</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="F40" t="n">
-        <v>3664.857971288372</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>198.3339344051082</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>4460.362299539157</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>4460.362299539157</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y40" t="n">
-        <v>4460.362299539157</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7414,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1298.996260473455</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.7763375151577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y46" t="n">
-        <v>1064.424802345397</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>104.8749102765755</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504752</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229568</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714805</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714805</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577674</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>23.78198380940944</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.61317483751324</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>9.478940482301851</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.06777566241345</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338477</v>
+        <v>140.3375291694984</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>9.326233471502064</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24897,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>130.6844047393597</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>69.63701571462916</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>9.476411694110851</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>111.7618452329338</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>10.31357094889785</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>118.0967168678601</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>42.08221638637286</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>51.56266414401836</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.985660880104149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238886</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852501</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852502</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
@@ -26441,22 +26441,22 @@
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773394</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,22 +26487,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165119</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980326</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980322</v>
+        <v>226417.2969980324</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.9742580959</v>
+        <v>-185319.5655178177</v>
       </c>
       <c r="F6" t="n">
-        <v>340815.0622187999</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="G6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590781</v>
       </c>
       <c r="H6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="I6" t="n">
-        <v>340815.0622187991</v>
+        <v>339840.4709590777</v>
       </c>
       <c r="J6" t="n">
-        <v>164391.8430262067</v>
+        <v>163417.2517664851</v>
       </c>
       <c r="K6" t="n">
-        <v>340815.0622187997</v>
+        <v>339840.4709590779</v>
       </c>
       <c r="L6" t="n">
-        <v>340815.0622188004</v>
+        <v>339840.4709590779</v>
       </c>
       <c r="M6" t="n">
-        <v>206014.0469849626</v>
+        <v>205039.4557252412</v>
       </c>
       <c r="N6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590779</v>
       </c>
       <c r="O6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590781</v>
       </c>
       <c r="P6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590781</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541001</v>
@@ -26758,19 +26758,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.18313365342641</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>312.8251745039251</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.368082955029</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.85826563880167</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.32944838658796</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>216.9047667501199</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>36.4846258037023</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>53.95978732560556</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>188.5699050465587</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>119.3753967830645</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>94.05418221232281</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>255.4503488645147</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>564.1615374009414</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980127</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507407</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734234</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>570.7728848187826</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560246</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209233</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336985</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411085</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315249</v>
+        <v>366.1055152450481</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1499110.143021233</v>
+        <v>1504049.405870264</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9589955168699</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>87.17482549607487</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.46389722690833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>18.08991703025499</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>148.3681250208876</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>288.1041182974041</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.715333384834691</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>225.2142649742363</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>113.7498308875051</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>78.21370159712967</v>
       </c>
       <c r="W13" t="n">
-        <v>262.7410145271816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>135.8803936258643</v>
+        <v>92.34798888139575</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>66.98836639312854</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>145.8998232290789</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>40.30312420665021</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>235.2707607354178</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59.49750230859899</v>
       </c>
       <c r="G31" t="n">
-        <v>57.64843562452451</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>75.78403230830209</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>172.7935996261252</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>100.1056745153741</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>49.1501042307677</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.2693160379189</v>
+        <v>164.2100584890558</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4321,22 +4321,22 @@
         <v>155.9217651707381</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>141.998361109329</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>141.998361109329</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.5189870075369</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>208.5445361866202</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>208.5445361866202</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>72.21562528526849</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.1446555862789</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>916.3870268335568</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>498.4232187317436</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321495</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198137</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374206</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>231.7461491374206</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>62.74634887575303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>62.74634887575303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>62.74634887575303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283103</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>769.038335078108</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>762.0928343289046</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.221582470428</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.221582470428</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2273.45979710852</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1942.396909764949</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1589.628254494835</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1216.162496233755</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
         <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253976</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
         <v>245.130185042679</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>885.1320028377861</v>
       </c>
       <c r="W13" t="n">
-        <v>465.9227641862091</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.4700143146943</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C16" t="n">
-        <v>234.4700143146943</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="D16" t="n">
-        <v>234.4700143146943</v>
+        <v>485.300929390484</v>
       </c>
       <c r="E16" t="n">
-        <v>234.4700143146943</v>
+        <v>337.3878358080909</v>
       </c>
       <c r="F16" t="n">
-        <v>234.4700143146943</v>
+        <v>190.4978883101806</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>644.1080300429513</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>416.118479144934</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.118479144934</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="17">
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5600,22 +5600,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1320.176150561012</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1320.176150561012</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>816.762183007535</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>456.5206480638858</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1966.019627967827</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.384017443268</v>
+        <v>792.456816243504</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153611</v>
+        <v>623.5206333155971</v>
       </c>
       <c r="D31" t="n">
-        <v>155.4478345153611</v>
+        <v>473.4039939032614</v>
       </c>
       <c r="E31" t="n">
-        <v>155.4478345153611</v>
+        <v>325.4909003208683</v>
       </c>
       <c r="F31" t="n">
-        <v>155.4478345153611</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352016</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150552</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170379</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735078</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="35">
@@ -6934,19 +6934,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>321.6797126268225</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C37" t="n">
-        <v>321.6797126268225</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>321.6797126268225</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>173.7666190444294</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>731.3177283550796</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>503.3281774570622</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y37" t="n">
-        <v>503.3281774570622</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.665036439558</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>496.665036439558</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>348.7519428571649</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>348.7519428571649</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>348.7519428571649</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>198.3339344051082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>496.665036439558</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y40" t="n">
-        <v>496.665036439558</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768803</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>615.749957978863</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.9573788353329</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>253.7371603504752</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>159.0121003135234</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>173.9239417266983</v>
       </c>
       <c r="W13" t="n">
-        <v>23.78198380940944</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.61317483751324</v>
+        <v>74.14557958198183</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.9324435904747</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>140.3375291694984</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>105.117923816281</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.96659166315956</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>85.92354571433225</v>
       </c>
       <c r="G31" t="n">
-        <v>108.8451328388531</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>139.8584236265063</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>69.63701571462916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,19 +25365,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>52.91605576291192</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>10.31357094889785</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>118.0967168678601</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.56266414401836</v>
+        <v>15.6219216928815</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="K2" t="n">
-        <v>469234.8716852501</v>
-      </c>
       <c r="L2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852502</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852503</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165119</v>
+        <v>-363550.5822165122</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980326</v>
+        <v>226417.2969980322</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980322</v>
       </c>
       <c r="E6" t="n">
-        <v>-185319.5655178177</v>
+        <v>-184442.4333840686</v>
       </c>
       <c r="F6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="G6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="H6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="I6" t="n">
-        <v>339840.4709590777</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="J6" t="n">
-        <v>163417.2517664851</v>
+        <v>164294.3839002344</v>
       </c>
       <c r="K6" t="n">
-        <v>339840.4709590779</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="L6" t="n">
-        <v>339840.4709590779</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="M6" t="n">
-        <v>205039.4557252412</v>
+        <v>205916.5878589905</v>
       </c>
       <c r="N6" t="n">
-        <v>339840.4709590779</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="O6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="P6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928275</v>
       </c>
     </row>
   </sheetData>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.8251745039251</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>64.75649074878638</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.368082955029</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.110042158282</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>216.9047667501199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>35.81865446695303</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>36.4846258037023</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>188.5699050465587</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.66588192146648</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800586</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,19 +35497,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>564.1615374009414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>570.7728848187826</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>366.1055152450481</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
